--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd34-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd34-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>181.777022</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H2">
-        <v>545.331066</v>
+        <v>531.992462</v>
       </c>
       <c r="I2">
-        <v>0.6745240081000091</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J2">
-        <v>0.6869174838889931</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.146719</v>
+        <v>0.14839</v>
       </c>
       <c r="N2">
-        <v>0.440157</v>
+        <v>0.44517</v>
       </c>
       <c r="O2">
-        <v>0.002213357657235064</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P2">
-        <v>0.002213357657235064</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q2">
-        <v>26.670142890818</v>
+        <v>26.31412047872667</v>
       </c>
       <c r="R2">
-        <v>240.031286017362</v>
+        <v>236.82708430854</v>
       </c>
       <c r="S2">
-        <v>0.001492962878317041</v>
+        <v>0.001959843380549805</v>
       </c>
       <c r="T2">
-        <v>0.001520394072854346</v>
+        <v>0.001968659285189252</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>181.777022</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H3">
-        <v>545.331066</v>
+        <v>531.992462</v>
       </c>
       <c r="I3">
-        <v>0.6745240081000091</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J3">
-        <v>0.6869174838889931</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.93198366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N3">
-        <v>86.795951</v>
+        <v>151.830096</v>
       </c>
       <c r="O3">
-        <v>0.4364589970461662</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P3">
-        <v>0.4364589970461662</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q3">
-        <v>5259.169831479308</v>
+        <v>8974.718508526261</v>
       </c>
       <c r="R3">
-        <v>47332.52848331376</v>
+        <v>80772.46657673636</v>
       </c>
       <c r="S3">
-        <v>0.2944020720588901</v>
+        <v>0.6684260139134295</v>
       </c>
       <c r="T3">
-        <v>0.2998113160716659</v>
+        <v>0.6714327745840365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>181.777022</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H4">
-        <v>545.331066</v>
+        <v>531.992462</v>
       </c>
       <c r="I4">
-        <v>0.6745240081000091</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J4">
-        <v>0.6869174838889931</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>37.20927366666667</v>
+        <v>0.0541875</v>
       </c>
       <c r="N4">
-        <v>111.627821</v>
+        <v>0.108375</v>
       </c>
       <c r="O4">
-        <v>0.5613276452965987</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P4">
-        <v>0.5613276452965988</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q4">
-        <v>6763.790957909687</v>
+        <v>9.609113844875001</v>
       </c>
       <c r="R4">
-        <v>60874.11862118718</v>
+        <v>57.65468306925001</v>
       </c>
       <c r="S4">
-        <v>0.378628973162802</v>
+        <v>0.0007156749995521434</v>
       </c>
       <c r="T4">
-        <v>0.3855857737444729</v>
+        <v>0.0004792628659442128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.32699966666667</v>
+        <v>177.3308206666667</v>
       </c>
       <c r="H5">
-        <v>216.980999</v>
+        <v>531.992462</v>
       </c>
       <c r="I5">
-        <v>0.2683853942167015</v>
+        <v>0.7002038395306831</v>
       </c>
       <c r="J5">
-        <v>0.2733166165978157</v>
+        <v>0.7031139140072441</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.146719</v>
+        <v>2.203488</v>
       </c>
       <c r="N5">
-        <v>0.440157</v>
+        <v>6.610464</v>
       </c>
       <c r="O5">
-        <v>0.002213357657235064</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P5">
-        <v>0.002213357657235064</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q5">
-        <v>10.61174506409367</v>
+        <v>390.7463353691521</v>
       </c>
       <c r="R5">
-        <v>95.505705576843</v>
+        <v>3516.717018322368</v>
       </c>
       <c r="S5">
-        <v>0.0005940328673795875</v>
+        <v>0.02910230723715162</v>
       </c>
       <c r="T5">
-        <v>0.0006049474261963554</v>
+        <v>0.02923321727207423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>216.980999</v>
       </c>
       <c r="I6">
-        <v>0.2683853942167015</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="J6">
-        <v>0.2733166165978157</v>
+        <v>0.2867754157616089</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>28.93198366666667</v>
+        <v>0.14839</v>
       </c>
       <c r="N6">
-        <v>86.795951</v>
+        <v>0.44517</v>
       </c>
       <c r="O6">
-        <v>0.4364589970461662</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P6">
-        <v>0.4364589970461662</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q6">
-        <v>2092.563573015006</v>
+        <v>10.73260348053667</v>
       </c>
       <c r="R6">
-        <v>18833.07215713505</v>
+        <v>96.59343132483001</v>
       </c>
       <c r="S6">
-        <v>0.1171392199816615</v>
+        <v>0.0007993511280151068</v>
       </c>
       <c r="T6">
-        <v>0.1192914963563342</v>
+        <v>0.0008029468251957859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>216.980999</v>
       </c>
       <c r="I7">
-        <v>0.2683853942167015</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="J7">
-        <v>0.2733166165978157</v>
+        <v>0.2867754157616089</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>37.20927366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N7">
-        <v>111.627821</v>
+        <v>151.830096</v>
       </c>
       <c r="O7">
-        <v>0.5613276452965987</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P7">
-        <v>0.5613276452965988</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q7">
-        <v>2691.235124085909</v>
+        <v>3660.471767593989</v>
       </c>
       <c r="R7">
-        <v>24221.11611677318</v>
+        <v>32944.2459083459</v>
       </c>
       <c r="S7">
-        <v>0.1506521413676605</v>
+        <v>0.2726274423349326</v>
       </c>
       <c r="T7">
-        <v>0.1534201728152852</v>
+        <v>0.2738537941738468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1272716666666667</v>
+        <v>72.32699966666667</v>
       </c>
       <c r="H8">
-        <v>0.381815</v>
+        <v>216.980999</v>
       </c>
       <c r="I8">
-        <v>0.0004722697829078108</v>
+        <v>0.285588498817871</v>
       </c>
       <c r="J8">
-        <v>0.0004809471080290077</v>
+        <v>0.2867754157616089</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.146719</v>
+        <v>0.0541875</v>
       </c>
       <c r="N8">
-        <v>0.440157</v>
+        <v>0.108375</v>
       </c>
       <c r="O8">
-        <v>0.002213357657235064</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P8">
-        <v>0.002213357657235064</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q8">
-        <v>0.01867317166166667</v>
+        <v>3.9192192944375</v>
       </c>
       <c r="R8">
-        <v>0.168058544955</v>
+        <v>23.515315766625</v>
       </c>
       <c r="S8">
-        <v>1.045301940279744E-06</v>
+        <v>0.0002918986404024435</v>
       </c>
       <c r="T8">
-        <v>1.064507964281064E-06</v>
+        <v>0.0001954744528620376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>72.32699966666667</v>
+      </c>
+      <c r="H9">
+        <v>216.980999</v>
+      </c>
+      <c r="I9">
+        <v>0.285588498817871</v>
+      </c>
+      <c r="J9">
+        <v>0.2867754157616089</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.1272716666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.381815</v>
-      </c>
-      <c r="I9">
-        <v>0.0004722697829078108</v>
-      </c>
-      <c r="J9">
-        <v>0.0004809471080290077</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>28.93198366666667</v>
+        <v>2.203488</v>
       </c>
       <c r="N9">
-        <v>86.795951</v>
+        <v>6.610464</v>
       </c>
       <c r="O9">
-        <v>0.4364589970461662</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P9">
-        <v>0.4364589970461662</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q9">
-        <v>3.682221781229445</v>
+        <v>159.371675841504</v>
       </c>
       <c r="R9">
-        <v>33.139996031065</v>
+        <v>1434.345082573536</v>
       </c>
       <c r="S9">
-        <v>0.0002061263957831537</v>
+        <v>0.01186980671452087</v>
       </c>
       <c r="T9">
-        <v>0.0002099136924025948</v>
+        <v>0.01192320030970424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1272716666666667</v>
+        <v>0.2238313333333334</v>
       </c>
       <c r="H10">
-        <v>0.381815</v>
+        <v>0.671494</v>
       </c>
       <c r="I10">
-        <v>0.0004722697829078108</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="J10">
-        <v>0.0004809471080290077</v>
+        <v>0.0008874877151405584</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>37.20927366666667</v>
+        <v>0.14839</v>
       </c>
       <c r="N10">
-        <v>111.627821</v>
+        <v>0.44517</v>
       </c>
       <c r="O10">
-        <v>0.5613276452965987</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P10">
-        <v>0.5613276452965988</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q10">
-        <v>4.735686275012778</v>
+        <v>0.03321433155333334</v>
       </c>
       <c r="R10">
-        <v>42.621176475115</v>
+        <v>0.29892898398</v>
       </c>
       <c r="S10">
-        <v>0.0002650980851843773</v>
+        <v>2.4737626281985E-06</v>
       </c>
       <c r="T10">
-        <v>0.0002699689076621319</v>
+        <v>2.484890280360535E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>14.5865095</v>
+        <v>0.2238313333333334</v>
       </c>
       <c r="H11">
-        <v>29.173019</v>
+        <v>0.671494</v>
       </c>
       <c r="I11">
-        <v>0.05412648278575529</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="J11">
-        <v>0.03674732297192435</v>
+        <v>0.0008874877151405584</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,95 +1116,95 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.146719</v>
+        <v>50.610032</v>
       </c>
       <c r="N11">
-        <v>0.440157</v>
+        <v>151.830096</v>
       </c>
       <c r="O11">
-        <v>0.002213357657235064</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P11">
-        <v>0.002213357657235064</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q11">
-        <v>2.1401180873305</v>
+        <v>11.32811094260267</v>
       </c>
       <c r="R11">
-        <v>12.840708523983</v>
+        <v>101.952998483424</v>
       </c>
       <c r="S11">
-        <v>0.0001198012651330533</v>
+        <v>0.0008437037925300236</v>
       </c>
       <c r="T11">
-        <v>8.133496868279871E-05</v>
+        <v>0.0008474989999699148</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>14.5865095</v>
+        <v>0.2238313333333334</v>
       </c>
       <c r="H12">
-        <v>29.173019</v>
+        <v>0.671494</v>
       </c>
       <c r="I12">
-        <v>0.05412648278575529</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="J12">
-        <v>0.03674732297192435</v>
+        <v>0.0008874877151405584</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>28.93198366666667</v>
+        <v>0.0541875</v>
       </c>
       <c r="N12">
-        <v>86.795951</v>
+        <v>0.108375</v>
       </c>
       <c r="O12">
-        <v>0.4364589970461662</v>
+        <v>0.001022095223059374</v>
       </c>
       <c r="P12">
-        <v>0.4364589970461662</v>
+        <v>0.0006816290453032835</v>
       </c>
       <c r="Q12">
-        <v>422.0166546076782</v>
+        <v>0.012128860375</v>
       </c>
       <c r="R12">
-        <v>2532.099927646069</v>
+        <v>0.07277316225000001</v>
       </c>
       <c r="S12">
-        <v>0.02362399039030733</v>
+        <v>9.03342626966145E-07</v>
       </c>
       <c r="T12">
-        <v>0.01603869972845764</v>
+        <v>6.049374039896512E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1219,19 +1219,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>14.5865095</v>
+        <v>0.2238313333333334</v>
       </c>
       <c r="H13">
-        <v>29.173019</v>
+        <v>0.671494</v>
       </c>
       <c r="I13">
-        <v>0.05412648278575529</v>
+        <v>0.000883814547398261</v>
       </c>
       <c r="J13">
-        <v>0.03674732297192435</v>
+        <v>0.0008874877151405584</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>37.20927366666667</v>
+        <v>2.203488</v>
       </c>
       <c r="N13">
-        <v>111.627821</v>
+        <v>6.610464</v>
       </c>
       <c r="O13">
-        <v>0.5613276452965987</v>
+        <v>0.04156262161695323</v>
       </c>
       <c r="P13">
-        <v>0.5613276452965988</v>
+        <v>0.04157678676199977</v>
       </c>
       <c r="Q13">
-        <v>542.7534238269332</v>
+        <v>0.493209657024</v>
       </c>
       <c r="R13">
-        <v>3256.520542961599</v>
+        <v>4.438886913216001</v>
       </c>
       <c r="S13">
-        <v>0.0303826911303149</v>
+        <v>3.67336496130727E-05</v>
       </c>
       <c r="T13">
-        <v>0.02062728827478391</v>
+        <v>3.689888748629339E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1281,54 +1281,54 @@
         <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.1445565</v>
+      </c>
+      <c r="H14">
+        <v>6.289113</v>
+      </c>
+      <c r="I14">
+        <v>0.0124165135346664</v>
+      </c>
+      <c r="J14">
+        <v>0.008312078032909873</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H14">
-        <v>2.014577</v>
-      </c>
-      <c r="I14">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J14">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>0.146719</v>
+        <v>0.14839</v>
       </c>
       <c r="N14">
-        <v>0.440157</v>
+        <v>0.44517</v>
       </c>
       <c r="O14">
-        <v>0.002213357657235064</v>
+        <v>0.002798961202302754</v>
       </c>
       <c r="P14">
-        <v>0.002213357657235064</v>
+        <v>0.002799915128928837</v>
       </c>
       <c r="Q14">
-        <v>0.09852557428766669</v>
+        <v>0.466620739035</v>
       </c>
       <c r="R14">
-        <v>0.8867301685890001</v>
+        <v>2.79972443421</v>
       </c>
       <c r="S14">
-        <v>5.515344465102068E-06</v>
+        <v>3.475333965139827E-05</v>
       </c>
       <c r="T14">
-        <v>5.616681537282327E-06</v>
+        <v>2.32731130371814E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1343,19 +1343,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6715256666666667</v>
+        <v>3.1445565</v>
       </c>
       <c r="H15">
-        <v>2.014577</v>
+        <v>6.289113</v>
       </c>
       <c r="I15">
-        <v>0.002491845114626373</v>
+        <v>0.0124165135346664</v>
       </c>
       <c r="J15">
-        <v>0.002537629433237966</v>
+        <v>0.008312078032909873</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,90 +1364,400 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.93198366666667</v>
+        <v>50.610032</v>
       </c>
       <c r="N15">
-        <v>86.795951</v>
+        <v>151.830096</v>
       </c>
       <c r="O15">
-        <v>0.4364589970461662</v>
+        <v>0.9546163219576846</v>
       </c>
       <c r="P15">
-        <v>0.4364589970461662</v>
+        <v>0.9549416690637682</v>
       </c>
       <c r="Q15">
-        <v>19.42856961974745</v>
+        <v>159.146105090808</v>
       </c>
       <c r="R15">
-        <v>174.857126577727</v>
+        <v>954.876630544848</v>
       </c>
       <c r="S15">
-        <v>0.001087588219524216</v>
+        <v>0.01185300648200105</v>
       </c>
       <c r="T15">
-        <v>0.001107571197305874</v>
+        <v>0.007937549670135238</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.1445565</v>
+      </c>
+      <c r="H16">
+        <v>6.289113</v>
+      </c>
+      <c r="I16">
+        <v>0.0124165135346664</v>
+      </c>
+      <c r="J16">
+        <v>0.008312078032909873</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0541875</v>
+      </c>
+      <c r="N16">
+        <v>0.108375</v>
+      </c>
+      <c r="O16">
+        <v>0.001022095223059374</v>
+      </c>
+      <c r="P16">
+        <v>0.0006816290453032835</v>
+      </c>
+      <c r="Q16">
+        <v>0.17039565534375</v>
+      </c>
+      <c r="R16">
+        <v>0.681582621375</v>
+      </c>
+      <c r="S16">
+        <v>1.269085917083459E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.665753814058751E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.1445565</v>
+      </c>
+      <c r="H17">
+        <v>6.289113</v>
+      </c>
+      <c r="I17">
+        <v>0.0124165135346664</v>
+      </c>
+      <c r="J17">
+        <v>0.008312078032909873</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.203488</v>
+      </c>
+      <c r="N17">
+        <v>6.610464</v>
+      </c>
+      <c r="O17">
+        <v>0.04156262161695323</v>
+      </c>
+      <c r="P17">
+        <v>0.04157678676199977</v>
+      </c>
+      <c r="Q17">
+        <v>6.928992513072001</v>
+      </c>
+      <c r="R17">
+        <v>41.57395507843201</v>
+      </c>
+      <c r="S17">
+        <v>0.000516062853843118</v>
+      </c>
+      <c r="T17">
+        <v>0.0003455894959233963</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.2297876666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.6893630000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.0009073335693812714</v>
+      </c>
+      <c r="J18">
+        <v>0.000911104483096559</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.6715256666666667</v>
-      </c>
-      <c r="H16">
-        <v>2.014577</v>
-      </c>
-      <c r="I16">
-        <v>0.002491845114626373</v>
-      </c>
-      <c r="J16">
-        <v>0.002537629433237966</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
+      <c r="M18">
+        <v>0.14839</v>
+      </c>
+      <c r="N18">
+        <v>0.44517</v>
+      </c>
+      <c r="O18">
+        <v>0.002798961202302754</v>
+      </c>
+      <c r="P18">
+        <v>0.002799915128928837</v>
+      </c>
+      <c r="Q18">
+        <v>0.03409819185666667</v>
+      </c>
+      <c r="R18">
+        <v>0.30688372671</v>
+      </c>
+      <c r="S18">
+        <v>2.539591458245052E-06</v>
+      </c>
+      <c r="T18">
+        <v>2.551015226256943E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.2297876666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.6893630000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.0009073335693812714</v>
+      </c>
+      <c r="J19">
+        <v>0.000911104483096559</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>50.610032</v>
+      </c>
+      <c r="N19">
+        <v>151.830096</v>
+      </c>
+      <c r="O19">
+        <v>0.9546163219576846</v>
+      </c>
+      <c r="P19">
+        <v>0.9549416690637682</v>
+      </c>
+      <c r="Q19">
+        <v>11.62956116320533</v>
+      </c>
+      <c r="R19">
+        <v>104.666050468848</v>
+      </c>
+      <c r="S19">
+        <v>0.000866155434791487</v>
+      </c>
+      <c r="T19">
+        <v>0.0008700516357797099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.2297876666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.6893630000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.0009073335693812714</v>
+      </c>
+      <c r="J20">
+        <v>0.000911104483096559</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.0541875</v>
+      </c>
+      <c r="N20">
+        <v>0.108375</v>
+      </c>
+      <c r="O20">
+        <v>0.001022095223059374</v>
+      </c>
+      <c r="P20">
+        <v>0.0006816290453032835</v>
+      </c>
+      <c r="Q20">
+        <v>0.0124516191875</v>
+      </c>
+      <c r="R20">
+        <v>0.07470971512500001</v>
+      </c>
+      <c r="S20">
+        <v>9.273813069860082E-07</v>
+      </c>
+      <c r="T20">
+        <v>6.21035278984649E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.2297876666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.6893630000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0009073335693812714</v>
+      </c>
+      <c r="J21">
+        <v>0.000911104483096559</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>37.20927366666667</v>
-      </c>
-      <c r="N16">
-        <v>111.627821</v>
-      </c>
-      <c r="O16">
-        <v>0.5613276452965987</v>
-      </c>
-      <c r="P16">
-        <v>0.5613276452965988</v>
-      </c>
-      <c r="Q16">
-        <v>24.98698230519078</v>
-      </c>
-      <c r="R16">
-        <v>224.882840746717</v>
-      </c>
-      <c r="S16">
-        <v>0.001398741550637055</v>
-      </c>
-      <c r="T16">
-        <v>0.00142444155439481</v>
+      <c r="M21">
+        <v>2.203488</v>
+      </c>
+      <c r="N21">
+        <v>6.610464</v>
+      </c>
+      <c r="O21">
+        <v>0.04156262161695323</v>
+      </c>
+      <c r="P21">
+        <v>0.04157678676199977</v>
+      </c>
+      <c r="Q21">
+        <v>0.5063343660480001</v>
+      </c>
+      <c r="R21">
+        <v>4.557009294432</v>
+      </c>
+      <c r="S21">
+        <v>3.771116182455336E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.788079681160765E-05</v>
       </c>
     </row>
   </sheetData>
